--- a/data/Eksklusion_lande/Lægernes Pension_eksklusionsliste_lande_isin.xlsx
+++ b/data/Eksklusion_lande/Lægernes Pension_eksklusionsliste_lande_isin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="170">
   <si>
     <t>Land</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Afghanistan</t>
   </si>
   <si>
-    <t xml:space="preserve">Amerikansk </t>
+    <t>Amerikansk Samoa</t>
   </si>
   <si>
     <t xml:space="preserve">Angola </t>
@@ -208,7 +208,7 @@
     <t>EU-sanktioner</t>
   </si>
   <si>
-    <t>American</t>
+    <t>American Samoa</t>
   </si>
   <si>
     <t>Angola</t>
@@ -331,7 +331,7 @@
     <t>Chad</t>
   </si>
   <si>
-    <t>Trinidad And Tobago</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Tunisia</t>
@@ -358,10 +358,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['US00253XAB73', 'US023765AA88', 'US02376RAE27', 'US023771T329', 'US02377LAA26', 'US02401LAA26', 'US024747AF43', 'US024747AG26', 'US026874DA29', 'US03027XAJ90', 'US03027XAX84', 'US03027XBJ81', 'US03027XBK54', 'US03040WAW55', 'US03040WAX39', 'XS2111940818', 'XS2227905903', 'XS2346207892', 'XS2393701284', 'XS2608242108', 'XS2622275886', 'XS2622275969', 'XS2772266420', 'XS2772266693', 'XS2779901482', 'XS2830466137', 'XS2830466301']</t>
-  </si>
-  <si>
-    <t>['XS1318576086', 'XS1819680288', 'XS1819680528', 'XS2083302419', 'XS2083302500', 'XS2446175577']</t>
+    <t>['XS1819680288', 'XS1819680528', 'XS2083302419', 'XS2083302500', 'XS2446175577']</t>
   </si>
   <si>
     <t>['XS1827041721', 'XS2356571559']</t>
@@ -394,7 +391,7 @@
     <t>['USP93960AH80', 'USP93960AJ47', 'USP93960AK10']</t>
   </si>
   <si>
-    <t>['XS1175223699', 'XS2023698553']</t>
+    <t>['XS1175223699']</t>
   </si>
   <si>
     <t>['US900123BJ84', 'US900123CB40', 'US900123CK49', 'US900123CM05', 'US900123DD96', 'US900123DH01', 'XS2477752260', 'XS2790222116']</t>
@@ -406,10 +403,7 @@
     <t>['XS0828779594', 'XS1056386714', 'XS1267081575']</t>
   </si>
   <si>
-    <t>['5,75 American Airli 20-04-2029', 'AMERICAN AIRLINES/AADVAN 5.75% 20.04.2029', 'American Airlines 2016-2 Pass Through Trusts 3.2% 20291215', 'AMERICAN AIRLINES GROUP 3.75% 01.03.2025', 'AMERICAN AIRLINES INC 7.25% 15.02.2028', 'American Airlines 2019-1 Pass Through Trust 3.15% 20330815', 'American Assets Trust Lp 3.375% 20310201', '4 American Builders 15-01-2028', 'ABC SUPPLY CO INC 3.875% 15.11.2029', 'American International Group, Inc. 4.5% 20440716', 'American Tower Corporation 4.4% 20260215', 'American Tower Corporation 2.75% 20270115', 'American Tower Corporation 1.5% 20280131', 'American Tower Corporation 2.95% 20510115', 'American Water Capital Corp. 2.8% 20300501', 'American Water Capital Corp. 3.45% 20500501', 'Inter-American Development Bank 3.05% 20250207', 'AMERICAN TOWER CORP 0.5% 15.01.2028', 'AMERICAN TOWER CORP 0.875% 21.05.2029', '0.40% American Tower Corp 2027', 'INTER-AMERICAN DEVEL BK 7% 17.04.2033', '4,125 AMT 16-05-2027', '4,625 AMT 16-05-2031', '4.63% American Tower Corp 2031', 'AMERICAN TOWER CORP 4.625% 16.05.2031', '3.38% American Medical Systems Europe BV 2029', '3.50% American Medical Systems Europe BV 2032', 'AMERICAN MEDICAL SYST EU 3.5% 08.03.2032', 'AALLN 4 1/8 03/15/32', '3.90% American Tower Corp 2030', '4.10% American Tower Corp 2034']</t>
-  </si>
-  <si>
-    <t>['9.50% Angolan Government International Bond 2025', '8,25 ANGOL 09-05-2028 (REGS)', '8.25% Angolan Government International Bond 2028', 'REPUBLIC OF ANGOLA 8.25% 09.05.2028', 'REPUBLIC OF ANGOLA 9.375% 08.05.2048', 'REPUBLIC OF ANGOLA 8% 26.11.2029', '9,125 ANGOL 26-11-2049 (REGS)', 'REPUBLIC OF ANGOLA 9.125% 26.11.2049', '8,75 ANGOL 14-04-2032 (REGS)', '8.75% Angolan Government International Bond 2032', 'REPUBLIC OF ANGOLA 8.75% 14.04.2032']</t>
+    <t>['8,25 ANGOL 09-05-2028 (REGS)', 'REPUBLIC OF ANGOLA 8.25% 09.05.2028', 'REPUBLIC OF ANGOLA 9.375% 08.05.2048', 'REPUBLIC OF ANGOLA 8% 26.11.2029', '9,125 ANGOL 26-11-2049 (REGS)', 'REPUBLIC OF ANGOLA 9.125% 26.11.2049', '8,75 ANGOL 14-04-2032 (REGS)', 'REPUBLIC OF ANGOLA 8.75% 14.04.2032']</t>
   </si>
   <si>
     <t>['EASTERN &amp; SOUTHERN AFRIC 4.875% 23.05.2024', 'EASTERN &amp; SOUTHERN AFRIC 4.125% 30.06.2028']</t>
@@ -442,7 +436,7 @@
     <t>['TRINIDAD &amp; TOBAGO 4.5% 26.06.2030', 'TRINIDAD &amp; TOBAGO 5.95% 14.01.2031', 'TRINIDAD &amp; TOBAGO 6.4% 26.06.2034']</t>
   </si>
   <si>
-    <t>['Tunisian Republic', 'TUNISIAN REPUBLIC 5.75% 30.01.2025', '6.38% Tunisian Republic 2026']</t>
+    <t>['TUNISIAN REPUBLIC 5.75% 30.01.2025']</t>
   </si>
   <si>
     <t>['6 TURKEY 14-01-2041', 'TURKEY 4 7/8 04/16/43', '4,875 TURKEY 09-10-2026', '5,75 TURKEY 11-05-2047', '6,5 TURKEY 20-09-2033', 'TURKEY 9 3/8 03/14/29', '7.23% SOCAR Turkey Enerji AS via Steas Funding 1 DAC 2026', 'SOCAR TURK ENRG FUNDING 7.23% 17.03.2026', '5,875 TURKEY 21-05-2030']</t>
@@ -454,10 +448,7 @@
     <t>['5.38% Zambia Government International Bond 2022', '8,5 ZAMBIN 14-04-2024 (REGS)', '8.50% Zambia Government International Bond 2024', '8.97% Zambia Government International Bond 2027']</t>
   </si>
   <si>
-    <t>['5,75 American Airli 20-04-2029', nan, 'USA', 'AMERICAN AIRLINES 2016-2 PASS THROUGH TRUSTS', 'AMERICAN AIRLINES 2019-1 PASS THROUGH TRUST', 'AMERICAN ASSETS TRUST LP', '4 American Builders 15-01-2028', 'American Builders &amp; Contractors Supply Co Inc', 'AMERICAN INTERNATIONAL GROUP INC', 'AMERICAN TOWER CORP', 'AMERICAN WATER CAPITAL CORP', 'INTER-AMERICAN DEVELOPMENT BANK', 'American Tower Corp', 'AMERICAN TOWER CORP  ', 'AMERICAN MEDICAL SYSTEMS EUROPE', 'American Medical Systems Europe BV', 'AMERICAN MEDICAL SYST EU  ', 'Holland', 'Anglo American Capital PLC 15.03.2032']</t>
-  </si>
-  <si>
-    <t>['9.50% Angolan Government International Bond 2025', 'Angolan Government International Bond', 'Republic of Angola', '8.25% Angolan Government International Bond 2028', 'Angola', 'REPUBLIC OF ANGOLA  ', '8.75% Angolan Government International Bond 2032']</t>
+    <t>['Republic of Angola', 'Angola', 'Angolan Government International Bond', 'REPUBLIC OF ANGOLA  ']</t>
   </si>
   <si>
     <t>['Burundi']</t>
@@ -487,7 +478,7 @@
     <t>['Trinidad And Tobago']</t>
   </si>
   <si>
-    <t>[nan, 'Tunisia', 'Tunisian Republic', 'TUNISIAN REPUBLIC  ', '6.38% Tunisian Republic 2026']</t>
+    <t>['Tunisia']</t>
   </si>
   <si>
     <t>['Republic of Turkiye/The', 'Turkey 16.04.2043', 'Turkey Government International Bond 14.03.2029', 'Turkey Government International Obligation 14.03.2029', '7.23% SOCAR Turkey Enerji AS via Steas Funding 1 DAC 2026', 'SOCAR Turkey Enerji AS via Steas Funding 1 DAC']</t>
@@ -499,10 +490,7 @@
     <t>['5.38% Zambia Government International Bond 2022', 'Zambia Government International Bond', 'Republic of Zambia', '8.50% Zambia Government International Bond 2024', '8.97% Zambia Government International Bond 2027']</t>
   </si>
   <si>
-    <t>['Ikast-Brande', 'Faaborg-Midtfyn', 'Guldborgsund', 'Hedensted', 'Helsingør', 'Hørsholm', 'Middelfart', 'Nordfyn', 'Roskilde', 'Slagelse', 'Svendborg', 'Syddjurs', 'Kalundborg', 'Vesthimmerland', 'Vejen', 'Assens', 'Region Sjælland', 'Skanderborg', 'Tønder', 'Vallensbæk', 'Viborg', 'Haderslev', 'Fanø', 'Herning', 'Region Nordjylland', 'Rudersdal', 'Ballerup', 'Fredericia', 'Greve', 'Høje Taastrup', 'Kolding', 'Mariagerfjord', 'Næstved', 'Skive', 'Varde']</t>
-  </si>
-  <si>
-    <t>['Ringkøbing-Skjern', 'Region Nordjylland', 'Herning', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
+    <t>['Herning', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen']</t>
   </si>
   <si>
     <t>['Fanø', 'Kalundborg']</t>
@@ -527,9 +515,6 @@
   </si>
   <si>
     <t>['Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Herning', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
-  </si>
-  <si>
-    <t>['Hedensted', 'Slagelse', 'Fanø', 'Kalundborg', 'Rødovre', 'Vejen', 'Ringkøbing-Skjern', 'Region Nordjylland']</t>
   </si>
   <si>
     <t>['Herning', 'Fredericia', 'Greve', 'Hillerød', 'Kolding', 'Lemvig', 'Skive', 'Varde', 'Aabenraa', 'Ringkøbing-Skjern', 'Region Nordjylland', 'Rødovre', 'Vejen']</t>
@@ -959,16 +944,16 @@
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -982,16 +967,16 @@
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1120,16 +1105,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1258,16 +1243,16 @@
         <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1442,16 +1427,16 @@
         <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1465,16 +1450,16 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1488,16 +1473,16 @@
         <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1580,16 +1565,16 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1649,16 +1634,16 @@
         <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1672,16 +1657,16 @@
         <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1718,16 +1703,16 @@
         <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1787,16 +1772,16 @@
         <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1971,16 +1956,16 @@
         <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1994,16 +1979,16 @@
         <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2017,16 +2002,16 @@
         <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2063,16 +2048,16 @@
         <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2109,16 +2094,16 @@
         <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G53" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7">
